--- a/Data/Melsol-test.xlsx
+++ b/Data/Melsol-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Dashboard2\Dashboard\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Python\Modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04545689-3723-4E0F-BCC1-D56076C51F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D6A71-7FA5-4245-8753-A780D26E60F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E868DD13-13D0-4205-B5B0-02BA8539ECDB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{E868DD13-13D0-4205-B5B0-02BA8539ECDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +85,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,14 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,21 +449,21 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.765625" customWidth="1"/>
+    <col min="3" max="3" width="17.69140625" customWidth="1"/>
+    <col min="4" max="4" width="18.3046875" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.4609375" customWidth="1"/>
+    <col min="8" max="8" width="13.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,12 +489,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>0.4</v>
@@ -523,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -550,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -577,14 +570,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.4</v>
       </c>
       <c r="D5" s="2">
@@ -604,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -631,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -658,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -685,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -712,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -739,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -766,7 +759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -793,7 +786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -820,7 +813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -847,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -874,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -901,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -928,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -955,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -982,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -1009,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -1036,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>9</v>
       </c>
@@ -1063,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>10</v>
       </c>
@@ -1093,6 +1086,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>